--- a/RFID Rough Draft.xlsx
+++ b/RFID Rough Draft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jconkle\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA93615B-561F-4171-9F7A-13B8BF8CF110}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3971BF73-21AA-4866-8EE6-2C127652E6F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{2012AC05-A136-4003-8E85-9A67A3B2B925}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>https://www.digikey.com/en/products/detail/sunfounder/CN0090/18668629?gclsrc=aw.ds&amp;&amp;utm_adgroup=&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PMax%20Shopping_Product_Medium%20ROAS%20Categories&amp;utm_term=&amp;utm_content=&amp;utm_id=go_cmp-20223376311_adg-_ad-__dev-c_ext-_prd-18668629_sig-EAIaIQobChMI8eSy2pfnigMVhLlaBR1VVAsyEAQYASABEgKEf_D_BwE&amp;gad_source=1&amp;gclid=EAIaIQobChMI8eSy2pfnigMVhLlaBR1VVAsyEAQYASABEgKEf_D_BwE&amp;gclsrc=aw.ds</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=48M9njLlrqE</t>
+  </si>
+  <si>
+    <t>Scholarly Articles</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/abstract/document/7888545/</t>
+  </si>
+  <si>
+    <t>https://www.mdpi.com/1424-8220/20/8/2378</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RnljdPqzepk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O87-VJqIP9A</t>
   </si>
 </sst>
 </file>
@@ -110,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -118,12 +133,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -133,12 +232,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="10" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -149,6 +267,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F02FFDB-2369-44D1-B2BB-78C88AFC42F1}" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{44AF0B97-0237-4316-8F81-F277289C154C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{82349A16-9B05-4D7D-A785-C1DEC2E836EF}" name="Part"/>
+    <tableColumn id="2" xr3:uid="{53CFA7BE-1ACC-4839-A89B-4A5A6F60B3A4}" name="Purpose"/>
+    <tableColumn id="3" xr3:uid="{2EB1B021-8164-4DDB-BEF2-CF0CBE28804C}" name="Price" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{15C9A350-0C27-41E7-9376-AC1961A47E4C}" name="Link" dataDxfId="0" dataCellStyle="Hyperlink"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,21 +579,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374845EF-9305-4708-9470-E3A2F42CDA4E}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23" style="3" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -475,11 +609,14 @@
       <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -492,11 +629,14 @@
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="F2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -509,8 +649,14 @@
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -522,6 +668,9 @@
       </c>
       <c r="D4" s="4" t="s">
         <v>8</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -531,5 +680,8 @@
     <hyperlink ref="D4" r:id="rId3" display="https://www.amazon.com/100pcs-125khz-Wholesale-Proximity-Keyfobs/dp/B0784NP1MR/ref=asc_df_B0784NP1MR?mcid=80f1ff2045a1398ab17c277757f9bf38&amp;tag=hyprod-20&amp;linkCode=df0&amp;hvadid=693308325595&amp;hvpos=&amp;hvnetw=g&amp;hvrand=4769738087357043635&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9190815&amp;hvtargid=pla-569484415162&amp;psc=1" xr:uid="{F57A14A7-E05C-4CB2-B75C-D191F9B4B913}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>